--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/dcpuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29869C52-C659-8A43-B0D5-6A2BD63C47DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9795"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="DCpUC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -193,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -255,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -273,6 +283,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,24 +564,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="11">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,102 +592,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="4">
         <v>2006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0.95661376543184151</v>
       </c>
@@ -681,7 +695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1.1755965181771633</v>
       </c>
@@ -691,9 +705,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -701,19 +715,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -724,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -736,7 +750,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -748,7 +762,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -760,7 +774,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -772,7 +786,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -784,7 +798,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -796,7 +810,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -808,7 +822,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -819,7 +833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -831,7 +845,7 @@
         <v>810251.85932076978</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -843,7 +857,7 @@
         <v>671542.86333315272</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -856,14 +870,14 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -871,7 +885,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -879,7 +893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -888,7 +902,7 @@
         <v>556213.01775147929</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -903,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -913,13 +927,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -927,7 +941,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -936,7 +950,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -945,7 +959,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -954,7 +968,7 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -963,7 +977,7 @@
         <v>653882.08703345177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -972,7 +986,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -981,7 +995,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1004,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1013,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1022,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1031,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1040,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1062,7 +1076,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>52</v>
       </c>

--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/elec/dcpuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/dcpuc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29869C52-C659-8A43-B0D5-6A2BD63C47DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61074DB-3843-3549-9688-B6F6B4CE9B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
+++ b/InputData/elec/DCpUC/Decommissioning Cost per Unit Cap.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/dcpuc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61074DB-3843-3549-9688-B6F6B4CE9B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="DCpUC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -203,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -265,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -283,7 +273,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,27 +553,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,102 +578,102 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>2006</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.95661376543184151</v>
       </c>
@@ -695,7 +681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1.1755965181771633</v>
       </c>
@@ -705,9 +691,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -715,19 +701,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -738,7 +724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -750,7 +736,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -762,7 +748,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -774,7 +760,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -786,7 +772,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -798,7 +784,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -810,7 +796,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -822,7 +808,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -833,7 +819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -845,7 +831,7 @@
         <v>810251.85932076978</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -857,7 +843,7 @@
         <v>671542.86333315272</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -870,14 +856,14 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -885,7 +871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -893,7 +879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -902,7 +888,7 @@
         <v>556213.01775147929</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -917,7 +903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -927,13 +913,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -941,7 +927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -950,7 +936,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +945,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -968,7 +954,7 @@
         <v>740897.3613269612</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -977,7 +963,7 @@
         <v>653882.08703345177</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -986,7 +972,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -995,7 +981,7 @@
         <v>54526.984629614963</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +990,7 @@
         <v>89921.693950593108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +999,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1008,7 @@
         <v>48787.302037023917</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1031,7 +1017,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1026,7 @@
         <v>14349.206481477622</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1035,7 @@
         <v>111923.81055552546</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1044,7 @@
         <v>202802.1182715504</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1053,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1076,7 +1062,7 @@
         <v>29655.026728387085</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
